--- a/data/apprentice_enter.xlsx
+++ b/data/apprentice_enter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D4869E-C55D-434A-9604-DBFB4534A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C67D1-8C6C-47D0-90EE-0C6B5C585A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="89">
   <si>
     <t>שם</t>
   </si>
@@ -97,9 +97,6 @@
     <t>און עלי</t>
   </si>
   <si>
-    <t>523301805</t>
-  </si>
-  <si>
     <t>עילי</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>משוחרר</t>
   </si>
   <si>
-    <t>מכינה-עלי</t>
-  </si>
-  <si>
     <t>נריה</t>
   </si>
   <si>
@@ -160,18 +154,9 @@
     <t>1999/01/28</t>
   </si>
   <si>
-    <t>523301800</t>
-  </si>
-  <si>
-    <t>24811</t>
-  </si>
-  <si>
     <t>אורגנג'י יהונתן אשר</t>
   </si>
   <si>
-    <t>523301806</t>
-  </si>
-  <si>
     <t>יהונתן</t>
   </si>
   <si>
@@ -214,15 +199,9 @@
     <t>1999/02/02</t>
   </si>
   <si>
-    <t>49851</t>
-  </si>
-  <si>
     <t>אורזל תומר</t>
   </si>
   <si>
-    <t>523301802</t>
-  </si>
-  <si>
     <t>תומר</t>
   </si>
   <si>
@@ -232,9 +211,6 @@
     <t>אלכסנדרוני 25</t>
   </si>
   <si>
-    <t>מעלה אפרים</t>
-  </si>
-  <si>
     <t>אסף</t>
   </si>
   <si>
@@ -271,110 +247,53 @@
     <t>1999/01/30</t>
   </si>
   <si>
-    <t>14509</t>
-  </si>
-  <si>
-    <t>אטיאס מתן</t>
-  </si>
-  <si>
-    <t>523301803</t>
-  </si>
-  <si>
-    <t>מתן</t>
-  </si>
-  <si>
-    <t>שזיף 13</t>
-  </si>
-  <si>
-    <t>תפוח</t>
-  </si>
-  <si>
-    <t>אהרון</t>
-  </si>
-  <si>
-    <t>526071600</t>
-  </si>
-  <si>
-    <t>שמרית</t>
-  </si>
-  <si>
-    <t>526071610</t>
-  </si>
-  <si>
-    <t>shimritat@gmail.com</t>
-  </si>
-  <si>
-    <t>יג ניסן</t>
-  </si>
-  <si>
-    <t>נשוי</t>
-  </si>
-  <si>
-    <t>קצין</t>
-  </si>
-  <si>
-    <t>313387346</t>
-  </si>
-  <si>
-    <t>1999/01/31</t>
-  </si>
-  <si>
-    <t>יתי אטלו</t>
-  </si>
-  <si>
-    <t>523301804</t>
-  </si>
-  <si>
-    <t>יתי</t>
-  </si>
-  <si>
-    <t>אפרת</t>
-  </si>
-  <si>
-    <t>בצבא</t>
-  </si>
-  <si>
-    <t>שבתי</t>
-  </si>
-  <si>
-    <t>545664626</t>
-  </si>
-  <si>
-    <t>אלישבע</t>
-  </si>
-  <si>
-    <t>585665002</t>
-  </si>
-  <si>
-    <t>ן</t>
-  </si>
-  <si>
-    <t>הרב איתן</t>
-  </si>
-  <si>
-    <t>הרב כרם</t>
-  </si>
-  <si>
-    <t>יתיר</t>
-  </si>
-  <si>
-    <t>e7atlow@bezeqint.net</t>
-  </si>
-  <si>
-    <t>ב תמוז</t>
-  </si>
-  <si>
-    <t>313387345</t>
-  </si>
-  <si>
-    <t>1999/02/01</t>
+    <t>בני דוד עלי</t>
+  </si>
+  <si>
+    <t>בני דוד הבקעה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בני דוד דרך אבות </t>
+  </si>
+  <si>
+    <t>און עלי1</t>
+  </si>
+  <si>
+    <t>און עלי0</t>
+  </si>
+  <si>
+    <t>אורזל תומר0</t>
+  </si>
+  <si>
+    <t>אורזל תומר1</t>
+  </si>
+  <si>
+    <t>און עלי2</t>
+  </si>
+  <si>
+    <t>און עלי3</t>
+  </si>
+  <si>
+    <t>און עלי4</t>
+  </si>
+  <si>
+    <t>און עלי5</t>
+  </si>
+  <si>
+    <t>און עלי6</t>
+  </si>
+  <si>
+    <t>און עלי7</t>
+  </si>
+  <si>
+    <t>און עלי8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,16 +301,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -399,12 +361,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,13 +738,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9:X16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,377 +824,1636 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>549247615</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2">
+        <v>549247616</v>
+      </c>
+      <c r="X2">
+        <v>23853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="B3">
+        <v>549247614</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3">
+        <v>549247616</v>
+      </c>
+      <c r="X3">
+        <v>23853</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>549247613</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4">
+        <v>549247616</v>
+      </c>
+      <c r="X4">
+        <v>23853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5">
+        <v>544816495</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="4">
+        <v>544816494</v>
+      </c>
+      <c r="X5">
+        <v>23853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="5">
+        <v>544816496</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="4">
+        <v>544816494</v>
+      </c>
+      <c r="X6">
+        <v>23853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="5">
+        <v>544816497</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" s="4">
+        <v>544816494</v>
+      </c>
+      <c r="X7">
+        <v>23853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5">
+        <v>544816498</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="4">
+        <v>544816494</v>
+      </c>
+      <c r="X8">
+        <v>23853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="5">
+        <v>544816499</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="4">
+        <v>544816494</v>
+      </c>
+      <c r="X9">
+        <v>89923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5">
+        <v>544816500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="4">
+        <v>544816494</v>
+      </c>
+      <c r="X10">
+        <v>89923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="5">
+        <v>544816501</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="4">
+        <v>544816494</v>
+      </c>
+      <c r="X11">
+        <v>89923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="5">
+        <v>544816502</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="4">
+        <v>544816494</v>
+      </c>
+      <c r="X12">
+        <v>89923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="4">
+        <v>549247617</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J13" t="s">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
+      <c r="K13" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X13">
+        <v>89923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="4">
+        <v>549247618</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M14" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
         <v>54</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q14" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" t="s">
         <v>56</v>
       </c>
-      <c r="L3" t="s">
+      <c r="U14" t="s">
         <v>57</v>
       </c>
-      <c r="M3" t="s">
+      <c r="V14" t="s">
         <v>58</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="W14" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X14">
+        <v>89923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="4">
+        <v>549247619</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X15">
+        <v>89923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4">
+        <v>549247620</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" t="s">
+        <v>58</v>
+      </c>
+      <c r="W16" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X16">
+        <v>89923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="4">
+        <v>549247621</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X17">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4">
+        <v>549247622</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X18">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4">
+        <v>549247623</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" t="s">
+        <v>57</v>
+      </c>
+      <c r="V19" t="s">
+        <v>58</v>
+      </c>
+      <c r="W19" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X19">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4">
+        <v>549247624</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" t="s">
+        <v>56</v>
+      </c>
+      <c r="U20" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" t="s">
+        <v>58</v>
+      </c>
+      <c r="W20" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X20">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4">
+        <v>549247625</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" t="s">
+        <v>56</v>
+      </c>
+      <c r="U21" t="s">
+        <v>57</v>
+      </c>
+      <c r="V21" t="s">
+        <v>58</v>
+      </c>
+      <c r="W21" s="4">
+        <v>549247616</v>
+      </c>
+      <c r="X21">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="4">
+        <v>523301801</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="U3" t="s">
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="V3" t="s">
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
         <v>63</v>
       </c>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="I22" t="s">
         <v>64</v>
       </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U22" t="s">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s">
+        <v>74</v>
+      </c>
+      <c r="W22" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="X22">
+        <v>43296</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4">
+        <v>523301802</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K23" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L23" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="M23" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
+      <c r="N23" t="s">
         <v>69</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="O23" t="s">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
+      <c r="P23" t="s">
         <v>71</v>
       </c>
-      <c r="I4" t="s">
+      <c r="Q23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" t="s">
         <v>72</v>
       </c>
-      <c r="J4" t="s">
+      <c r="U23" t="s">
         <v>73</v>
       </c>
-      <c r="K4" t="s">
+      <c r="V23" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" t="s">
-        <v>98</v>
-      </c>
-      <c r="W5" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" t="s">
-        <v>80</v>
-      </c>
-      <c r="U6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" t="s">
-        <v>115</v>
-      </c>
-      <c r="W6" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
+      <c r="W23" s="5">
+        <v>523301800</v>
+      </c>
+      <c r="X23">
+        <v>43296</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/apprentice_enter.xlsx
+++ b/data/apprentice_enter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B072A-7586-4F88-B5C9-9A374010EAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CBE00C-0E5E-495C-A530-3F979F75C247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="220">
   <si>
     <t>שם</t>
   </si>
@@ -674,6 +674,15 @@
   </si>
   <si>
     <t>ד</t>
+  </si>
+  <si>
+    <t>שילה</t>
+  </si>
+  <si>
+    <t>שיזפון</t>
+  </si>
+  <si>
+    <t>חיון</t>
   </si>
 </sst>
 </file>
@@ -1156,8 +1165,8 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:AI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1345,8 +1354,8 @@
       <c r="W2" t="s">
         <v>25</v>
       </c>
-      <c r="X2">
-        <v>23853</v>
+      <c r="X2" t="s">
+        <v>217</v>
       </c>
       <c r="Y2" t="s">
         <v>78</v>
@@ -1452,8 +1461,8 @@
       <c r="W3" t="s">
         <v>43</v>
       </c>
-      <c r="X3">
-        <v>43296</v>
+      <c r="X3" t="s">
+        <v>218</v>
       </c>
       <c r="Y3" t="s">
         <v>79</v>
@@ -1559,8 +1568,8 @@
       <c r="W4" t="s">
         <v>57</v>
       </c>
-      <c r="X4">
-        <v>89923</v>
+      <c r="X4" t="s">
+        <v>219</v>
       </c>
       <c r="Y4" t="s">
         <v>80</v>
@@ -1666,8 +1675,8 @@
       <c r="W5" t="s">
         <v>25</v>
       </c>
-      <c r="X5">
-        <v>23853</v>
+      <c r="X5" t="s">
+        <v>217</v>
       </c>
       <c r="Y5" t="s">
         <v>78</v>
@@ -1773,8 +1782,8 @@
       <c r="W6" t="s">
         <v>43</v>
       </c>
-      <c r="X6">
-        <v>23853</v>
+      <c r="X6" t="s">
+        <v>218</v>
       </c>
       <c r="Y6" t="s">
         <v>79</v>
@@ -1880,8 +1889,8 @@
       <c r="W7" t="s">
         <v>57</v>
       </c>
-      <c r="X7">
-        <v>23853</v>
+      <c r="X7" t="s">
+        <v>219</v>
       </c>
       <c r="Y7" t="s">
         <v>80</v>
@@ -1987,8 +1996,8 @@
       <c r="W8" t="s">
         <v>25</v>
       </c>
-      <c r="X8">
-        <v>23853</v>
+      <c r="X8" t="s">
+        <v>217</v>
       </c>
       <c r="Y8" t="s">
         <v>78</v>
@@ -2094,8 +2103,8 @@
       <c r="W9" t="s">
         <v>43</v>
       </c>
-      <c r="X9">
-        <v>89923</v>
+      <c r="X9" t="s">
+        <v>218</v>
       </c>
       <c r="Y9" t="s">
         <v>79</v>
@@ -2201,8 +2210,8 @@
       <c r="W10" t="s">
         <v>57</v>
       </c>
-      <c r="X10">
-        <v>43296</v>
+      <c r="X10" t="s">
+        <v>219</v>
       </c>
       <c r="Y10" t="s">
         <v>80</v>
@@ -2308,8 +2317,8 @@
       <c r="W11" t="s">
         <v>25</v>
       </c>
-      <c r="X11">
-        <v>89923</v>
+      <c r="X11" t="s">
+        <v>217</v>
       </c>
       <c r="Y11" t="s">
         <v>78</v>
@@ -2412,8 +2421,8 @@
       <c r="W12" t="s">
         <v>43</v>
       </c>
-      <c r="X12">
-        <v>89923</v>
+      <c r="X12" t="s">
+        <v>218</v>
       </c>
       <c r="Y12" t="s">
         <v>79</v>
@@ -2519,8 +2528,8 @@
       <c r="W13" t="s">
         <v>57</v>
       </c>
-      <c r="X13">
-        <v>89923</v>
+      <c r="X13" t="s">
+        <v>219</v>
       </c>
       <c r="Y13" t="s">
         <v>80</v>
@@ -2626,8 +2635,8 @@
       <c r="W14" t="s">
         <v>25</v>
       </c>
-      <c r="X14">
-        <v>89923</v>
+      <c r="X14" t="s">
+        <v>217</v>
       </c>
       <c r="Y14" t="s">
         <v>78</v>
@@ -2733,8 +2742,8 @@
       <c r="W15" t="s">
         <v>43</v>
       </c>
-      <c r="X15">
-        <v>89923</v>
+      <c r="X15" t="s">
+        <v>218</v>
       </c>
       <c r="Y15" t="s">
         <v>79</v>
@@ -2840,8 +2849,8 @@
       <c r="W16" t="s">
         <v>57</v>
       </c>
-      <c r="X16">
-        <v>89923</v>
+      <c r="X16" t="s">
+        <v>219</v>
       </c>
       <c r="Y16" t="s">
         <v>78</v>
@@ -2947,8 +2956,8 @@
       <c r="W17" t="s">
         <v>25</v>
       </c>
-      <c r="X17">
-        <v>43296</v>
+      <c r="X17" t="s">
+        <v>217</v>
       </c>
       <c r="Y17" t="s">
         <v>79</v>
@@ -3054,8 +3063,8 @@
       <c r="W18" t="s">
         <v>43</v>
       </c>
-      <c r="X18">
-        <v>43296</v>
+      <c r="X18" t="s">
+        <v>218</v>
       </c>
       <c r="Y18" t="s">
         <v>80</v>
@@ -3161,8 +3170,8 @@
       <c r="W19" t="s">
         <v>57</v>
       </c>
-      <c r="X19">
-        <v>43296</v>
+      <c r="X19" t="s">
+        <v>219</v>
       </c>
       <c r="Y19" t="s">
         <v>78</v>
@@ -3268,8 +3277,8 @@
       <c r="W20" t="s">
         <v>25</v>
       </c>
-      <c r="X20">
-        <v>43296</v>
+      <c r="X20" t="s">
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
         <v>79</v>
@@ -3375,8 +3384,8 @@
       <c r="W21" t="s">
         <v>43</v>
       </c>
-      <c r="X21">
-        <v>43296</v>
+      <c r="X21" t="s">
+        <v>218</v>
       </c>
       <c r="Y21" t="s">
         <v>80</v>
@@ -3482,8 +3491,8 @@
       <c r="W22" t="s">
         <v>57</v>
       </c>
-      <c r="X22">
-        <v>43296</v>
+      <c r="X22" t="s">
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
         <v>78</v>
@@ -3589,8 +3598,8 @@
       <c r="W23" t="s">
         <v>25</v>
       </c>
-      <c r="X23">
-        <v>23853</v>
+      <c r="X23" t="s">
+        <v>217</v>
       </c>
       <c r="Y23" t="s">
         <v>79</v>
@@ -3696,8 +3705,8 @@
       <c r="W24" t="s">
         <v>43</v>
       </c>
-      <c r="X24">
-        <v>43296</v>
+      <c r="X24" t="s">
+        <v>218</v>
       </c>
       <c r="Y24" t="s">
         <v>79</v>
@@ -3803,8 +3812,8 @@
       <c r="W25" t="s">
         <v>57</v>
       </c>
-      <c r="X25">
-        <v>43296</v>
+      <c r="X25" t="s">
+        <v>219</v>
       </c>
       <c r="Y25" t="s">
         <v>79</v>
@@ -3910,8 +3919,8 @@
       <c r="W26" t="s">
         <v>25</v>
       </c>
-      <c r="X26">
-        <v>43296</v>
+      <c r="X26" t="s">
+        <v>217</v>
       </c>
       <c r="Y26" t="s">
         <v>79</v>
@@ -4017,8 +4026,8 @@
       <c r="W27" t="s">
         <v>43</v>
       </c>
-      <c r="X27">
-        <v>23853</v>
+      <c r="X27" t="s">
+        <v>218</v>
       </c>
       <c r="Y27" t="s">
         <v>79</v>
@@ -4124,8 +4133,8 @@
       <c r="W28" t="s">
         <v>57</v>
       </c>
-      <c r="X28">
-        <v>43296</v>
+      <c r="X28" t="s">
+        <v>219</v>
       </c>
       <c r="Y28" t="s">
         <v>79</v>
